--- a/data/trans_dic/P1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,82; 11,63</t>
+          <t>8,02; 11,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,78; 13,07</t>
+          <t>8,75; 12,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,15; 19,31</t>
+          <t>14,34; 19,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,84; 30,81</t>
+          <t>23,66; 30,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,01; 16,93</t>
+          <t>13,07; 17,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,42; 18,5</t>
+          <t>14,36; 18,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,63; 23,16</t>
+          <t>17,77; 23,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,88; 38,02</t>
+          <t>32,88; 38,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,25; 14,13</t>
+          <t>11,28; 14,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,46; 15,58</t>
+          <t>12,58; 15,4</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,01; 20,93</t>
+          <t>16,95; 21,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,26; 34,49</t>
+          <t>30,22; 34,26</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 6,75</t>
+          <t>4,41; 6,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 7,45</t>
+          <t>5,05; 7,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,3; 10,92</t>
+          <t>8,55; 11,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,51; 18,07</t>
+          <t>14,45; 18,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 5,21</t>
+          <t>3,14; 5,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,63; 5,86</t>
+          <t>3,63; 5,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,58; 11,36</t>
+          <t>8,51; 11,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,33; 12,74</t>
+          <t>9,62; 12,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 5,53</t>
+          <t>3,97; 5,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 6,27</t>
+          <t>4,73; 6,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,74; 10,6</t>
+          <t>8,78; 10,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,39; 14,99</t>
+          <t>12,44; 14,93</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 11,41</t>
+          <t>6,25; 11,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,07; 15,97</t>
+          <t>9,18; 15,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,46; 21,46</t>
+          <t>14,58; 21,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,27; 18,15</t>
+          <t>12,4; 18,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,33</t>
+          <t>5,79; 10,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,14; 14,33</t>
+          <t>8,31; 14,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,12; 16,1</t>
+          <t>9,95; 16,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,06; 17,84</t>
+          <t>12,96; 17,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 9,94</t>
+          <t>6,63; 10,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,52; 14,1</t>
+          <t>9,64; 13,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,16; 17,61</t>
+          <t>13,07; 17,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,44; 17,25</t>
+          <t>13,4; 17,1</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 8,3</t>
+          <t>6,34; 8,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,35; 9,34</t>
+          <t>7,32; 9,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,5; 13,88</t>
+          <t>11,44; 13,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,38; 19,21</t>
+          <t>16,3; 19,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,74; 9,75</t>
+          <t>7,7; 9,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,85; 10,94</t>
+          <t>8,86; 10,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,99; 14,35</t>
+          <t>12,04; 14,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,57; 18,58</t>
+          <t>15,8; 18,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,36; 8,75</t>
+          <t>7,43; 8,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,34; 9,86</t>
+          <t>8,32; 9,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,06; 13,69</t>
+          <t>11,99; 13,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,48; 18,47</t>
+          <t>16,58; 18,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,02; 11,73</t>
+          <t>8,04; 11,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,75; 12,7</t>
+          <t>8,93; 12,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,34; 19,64</t>
+          <t>14,16; 19,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,07; 17,09</t>
+          <t>13,04; 17,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,36; 18,67</t>
+          <t>14,4; 18,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,77; 23,16</t>
+          <t>17,69; 23,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,28; 14,08</t>
+          <t>11,26; 14,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,58; 15,4</t>
+          <t>12,59; 15,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,95; 21,0</t>
+          <t>17,02; 20,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 6,51</t>
+          <t>4,28; 6,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,05; 7,38</t>
+          <t>5,1; 7,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,55; 11,07</t>
+          <t>8,42; 11,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,14; 5,15</t>
+          <t>2,96; 5,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,63; 5,79</t>
+          <t>3,57; 5,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,51; 11,23</t>
+          <t>8,32; 11,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,97; 5,56</t>
+          <t>3,96; 5,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,73; 6,28</t>
+          <t>4,67; 6,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,78; 10,69</t>
+          <t>8,77; 10,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,25; 11,34</t>
+          <t>6,13; 11,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,18; 15,5</t>
+          <t>9,2; 15,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,58; 21,32</t>
+          <t>14,56; 21,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,79; 10,66</t>
+          <t>5,69; 10,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,31; 14,61</t>
+          <t>8,38; 14,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,95; 16,35</t>
+          <t>9,98; 16,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,63; 10,13</t>
+          <t>6,7; 10,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,64; 13,93</t>
+          <t>9,51; 14,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,07; 17,54</t>
+          <t>13,08; 17,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,34; 8,24</t>
+          <t>6,4; 8,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 9,35</t>
+          <t>7,32; 9,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,44; 13,86</t>
+          <t>11,42; 13,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,7; 9,76</t>
+          <t>7,85; 9,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,86; 10,84</t>
+          <t>8,79; 10,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,04; 14,45</t>
+          <t>12,0; 14,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,43; 8,74</t>
+          <t>7,4; 8,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,32; 9,81</t>
+          <t>8,42; 9,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,99; 13,76</t>
+          <t>12,09; 13,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,04; 11,73</t>
+          <t>7,82; 11,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,93; 12,8</t>
+          <t>8,78; 13,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,16; 19,54</t>
+          <t>14,15; 19,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,66; 30,65</t>
+          <t>23,84; 30,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,04; 17,03</t>
+          <t>13,01; 16,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,4; 18,46</t>
+          <t>14,42; 18,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,69; 23,27</t>
+          <t>17,63; 23,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,88; 38,29</t>
+          <t>32,88; 38,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,26; 14,06</t>
+          <t>11,25; 14,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,59; 15,54</t>
+          <t>12,46; 15,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,02; 20,69</t>
+          <t>17,01; 20,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,22; 34,26</t>
+          <t>30,26; 34,49</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 6,57</t>
+          <t>4,41; 6,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,1; 7,49</t>
+          <t>5,12; 7,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,42; 11,01</t>
+          <t>8,3; 10,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,45; 18,04</t>
+          <t>14,51; 18,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 5,02</t>
+          <t>3,08; 5,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 5,73</t>
+          <t>3,63; 5,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,32; 11,14</t>
+          <t>8,58; 11,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,62; 12,74</t>
+          <t>9,33; 12,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 5,49</t>
+          <t>4,02; 5,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 6,25</t>
+          <t>4,69; 6,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,77; 10,67</t>
+          <t>8,74; 10,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,44; 14,93</t>
+          <t>12,39; 14,99</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 11,33</t>
+          <t>6,5; 11,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,2; 15,28</t>
+          <t>9,07; 15,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,56; 21,56</t>
+          <t>14,46; 21,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,4; 18,21</t>
+          <t>12,27; 18,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,69; 10,62</t>
+          <t>5,5; 10,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,38; 14,34</t>
+          <t>8,14; 14,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,98; 16,02</t>
+          <t>10,12; 16,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,96; 17,71</t>
+          <t>13,06; 17,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,7; 10,4</t>
+          <t>6,61; 9,94</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,51; 14,05</t>
+          <t>9,52; 14,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,08; 17,66</t>
+          <t>13,16; 17,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,4; 17,1</t>
+          <t>13,44; 17,25</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,4; 8,27</t>
+          <t>6,39; 8,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 9,31</t>
+          <t>7,35; 9,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,42; 13,76</t>
+          <t>11,5; 13,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,3; 19,27</t>
+          <t>16,38; 19,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,85; 9,77</t>
+          <t>7,74; 9,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,79; 10,91</t>
+          <t>8,85; 10,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,0; 14,49</t>
+          <t>11,99; 14,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,8; 18,66</t>
+          <t>15,57; 18,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,4; 8,8</t>
+          <t>7,36; 8,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,42; 9,87</t>
+          <t>8,34; 9,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,09; 13,76</t>
+          <t>12,06; 13,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,58; 18,56</t>
+          <t>16,48; 18,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>35,45%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>32,34%</t>
+          <t>32,18%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,84; 30,81</t>
+          <t>23,87; 30,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,88; 38,02</t>
+          <t>32,88; 37,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,26; 34,49</t>
+          <t>30,1; 34,25</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>12,6%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,51; 18,07</t>
+          <t>10,95; 17,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,33; 12,74</t>
+          <t>7,29; 11,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,39; 14,99</t>
+          <t>10,08; 14,29</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>15,04%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,27; 18,15</t>
+          <t>12,25; 18,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,06; 17,84</t>
+          <t>12,93; 17,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,44; 17,25</t>
+          <t>13,27; 17,21</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>16,55%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,38; 19,21</t>
+          <t>12,81; 18,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,57; 18,58</t>
+          <t>12,93; 17,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,48; 18,47</t>
+          <t>14,31; 17,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,82; 11,63</t>
+          <t>7,94; 11,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,78; 13,07</t>
+          <t>8,74; 12,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,15; 19,31</t>
+          <t>14,35; 19,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,87; 30,95</t>
+          <t>24,16; 31,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,01; 16,93</t>
+          <t>12,99; 16,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,42; 18,5</t>
+          <t>14,11; 18,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,63; 23,16</t>
+          <t>17,94; 22,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,88; 37,92</t>
+          <t>32,97; 38,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,25; 14,13</t>
+          <t>11,3; 14,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,46; 15,58</t>
+          <t>12,6; 15,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,01; 20,93</t>
+          <t>16,83; 20,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,1; 34,25</t>
+          <t>30,2; 34,46</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 6,75</t>
+          <t>4,3; 6,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 7,45</t>
+          <t>5,07; 7,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,3; 10,92</t>
+          <t>8,45; 11,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,95; 17,27</t>
+          <t>10,04; 17,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 5,21</t>
+          <t>2,96; 5,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,63; 5,86</t>
+          <t>3,67; 5,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,58; 11,36</t>
+          <t>8,34; 11,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 11,98</t>
+          <t>7,75; 12,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 5,53</t>
+          <t>3,98; 5,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 6,27</t>
+          <t>4,63; 6,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,74; 10,6</t>
+          <t>8,77; 10,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,08; 14,29</t>
+          <t>10,12; 14,22</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 11,41</t>
+          <t>6,14; 11,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,07; 15,97</t>
+          <t>9,39; 15,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,46; 21,46</t>
+          <t>14,75; 21,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,25; 18,14</t>
+          <t>12,43; 18,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,33</t>
+          <t>5,72; 10,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,14; 14,33</t>
+          <t>8,34; 14,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,12; 16,1</t>
+          <t>10,01; 16,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,93; 17,64</t>
+          <t>12,93; 17,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 9,94</t>
+          <t>6,67; 10,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,52; 14,1</t>
+          <t>9,53; 13,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,16; 17,61</t>
+          <t>12,88; 17,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,27; 17,21</t>
+          <t>13,18; 16,9</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 8,3</t>
+          <t>6,4; 8,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,35; 9,34</t>
+          <t>7,21; 9,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,5; 13,88</t>
+          <t>11,54; 13,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,81; 18,48</t>
+          <t>13,03; 18,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,74; 9,75</t>
+          <t>7,8; 9,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,85; 10,94</t>
+          <t>8,79; 10,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,99; 14,35</t>
+          <t>12,09; 14,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,93; 17,89</t>
+          <t>13,47; 17,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,36; 8,75</t>
+          <t>7,35; 8,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,34; 9,86</t>
+          <t>8,4; 9,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,06; 13,69</t>
+          <t>12,06; 13,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,31; 17,89</t>
+          <t>14,47; 17,91</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares unipersonales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>99644</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>104342</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>126521</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>141064</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>196069</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>218922</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>202789</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>267797</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>295712</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>323264</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>329310</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>408861</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>81876; 119790</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>85229; 123868</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>108263; 147228</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>124391; 160490</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>170845; 221745</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>188811; 246376</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>178453; 227972</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>249057; 288172</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>265234; 329304</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>291270; 360100</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>294340; 363328</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>383655; 437805</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>91400</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>120692</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>201687</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>338199</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>63077</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>81277</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>192554</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>232189</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>154478</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>201969</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>394241</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>570388</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>72765; 112744</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>99631; 143233</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>175498; 229931</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>230016; 392626</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>46937; 80236</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>64450; 102334</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>165798; 221159</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>173501; 268956</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>130583; 180047</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>172446; 232819</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>356531; 430571</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>458422; 644072</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>47605</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>57980</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>97021</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>96699</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>36986</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>50777</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>70275</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>99838</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>84591</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>108758</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>167296</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>196537</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33829; 62039</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>45181; 75034</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>80652; 117126</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>80391; 119229</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>27230; 48934</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>38265; 65734</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>54984; 88328</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>85374; 114248</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>68560; 103290</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>89534; 129486</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>141131; 193003</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>172237; 220858</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1123</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>811</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1809</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>238649</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>283015</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>425229</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>575962</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>296132</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>350977</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>465618</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>599825</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>534781</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>633991</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>890847</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1175786</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>209536; 267820</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>246690; 319112</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>389902; 468247</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>449658; 641760</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>263461; 331569</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>312352; 389335</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>426949; 510664</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>492241; 656244</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>489298; 577801</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>585563; 686457</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>833335; 948919</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1028205; 1272746</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>